--- a/Code/Results/Cases/Case_3_247/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_247/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.253140474148381</v>
+        <v>0.7628980452026326</v>
       </c>
       <c r="C2">
-        <v>0.5908296979985721</v>
+        <v>0.1842370164797558</v>
       </c>
       <c r="D2">
-        <v>0.3993031491189356</v>
+        <v>0.3920742421111072</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.656480142192656</v>
+        <v>0.9024930629654122</v>
       </c>
       <c r="G2">
-        <v>0.2981014660581565</v>
+        <v>0.347515035241031</v>
       </c>
       <c r="H2">
-        <v>0.225921209602987</v>
+        <v>0.5039216626703507</v>
       </c>
       <c r="I2">
-        <v>0.1275199362180075</v>
+        <v>0.3320893952141368</v>
       </c>
       <c r="J2">
-        <v>0.4453765203119673</v>
+        <v>0.3462031607624141</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7841902800736449</v>
+        <v>0.9071511714870297</v>
       </c>
       <c r="O2">
-        <v>1.055899362760186</v>
+        <v>1.638632617096761</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.963531283811278</v>
+        <v>0.6720906560256878</v>
       </c>
       <c r="C3">
-        <v>0.5178737620995264</v>
+        <v>0.1609428693234065</v>
       </c>
       <c r="D3">
-        <v>0.3552820814851145</v>
+        <v>0.3820508835601544</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6026175179614484</v>
+        <v>0.8966419063335067</v>
       </c>
       <c r="G3">
-        <v>0.2716625221800726</v>
+        <v>0.3447431359752429</v>
       </c>
       <c r="H3">
-        <v>0.219045250990149</v>
+        <v>0.5063590435960492</v>
       </c>
       <c r="I3">
-        <v>0.1303898239852685</v>
+        <v>0.3368272960522667</v>
       </c>
       <c r="J3">
-        <v>0.3928603959430603</v>
+        <v>0.3344425702579059</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7677955210929355</v>
+        <v>0.9038441186900457</v>
       </c>
       <c r="O3">
-        <v>0.9850986161774387</v>
+        <v>1.637589832813845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.785562873505199</v>
+        <v>0.616206344787912</v>
       </c>
       <c r="C4">
-        <v>0.4730145465381099</v>
+        <v>0.1465773524022609</v>
       </c>
       <c r="D4">
-        <v>0.3285724478862875</v>
+        <v>0.3760669391792391</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5707727944879011</v>
+        <v>0.8936410741296541</v>
       </c>
       <c r="G4">
-        <v>0.2561685535548648</v>
+        <v>0.3433435931115554</v>
       </c>
       <c r="H4">
-        <v>0.2152958608648703</v>
+        <v>0.5081234867077313</v>
       </c>
       <c r="I4">
-        <v>0.1326546133029005</v>
+        <v>0.3399832532416962</v>
       </c>
       <c r="J4">
-        <v>0.3611362742582287</v>
+        <v>0.3274249198447734</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7584763144561322</v>
+        <v>0.9021574511902486</v>
       </c>
       <c r="O4">
-        <v>0.9441743102242839</v>
+        <v>1.638141904688723</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.712987948495822</v>
+        <v>0.5934024802451177</v>
       </c>
       <c r="C5">
-        <v>0.4547143206681028</v>
+        <v>0.1407078966952326</v>
       </c>
       <c r="D5">
-        <v>0.3177617381790583</v>
+        <v>0.3736714391809102</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5580845992663512</v>
+        <v>0.8925669588300238</v>
       </c>
       <c r="G5">
-        <v>0.2500278751500389</v>
+        <v>0.342849144695883</v>
       </c>
       <c r="H5">
-        <v>0.213881051073237</v>
+        <v>0.5089098762152915</v>
       </c>
       <c r="I5">
-        <v>0.1336979256501749</v>
+        <v>0.3413313020194018</v>
       </c>
       <c r="J5">
-        <v>0.3483274848661608</v>
+        <v>0.3246162922608562</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7548599322195741</v>
+        <v>0.9015569117318023</v>
       </c>
       <c r="O5">
-        <v>0.9280989435668658</v>
+        <v>1.638666348578226</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.700933435964856</v>
+        <v>0.5896141201605758</v>
       </c>
       <c r="C6">
-        <v>0.4516742890575358</v>
+        <v>0.1397323603959251</v>
       </c>
       <c r="D6">
-        <v>0.3159708904346417</v>
+        <v>0.3732762700370813</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5559946156469024</v>
+        <v>0.8923975849323114</v>
       </c>
       <c r="G6">
-        <v>0.2490183218922297</v>
+        <v>0.3427716197513746</v>
       </c>
       <c r="H6">
-        <v>0.213652791894944</v>
+        <v>0.5090445243664803</v>
       </c>
       <c r="I6">
-        <v>0.1338782675319621</v>
+        <v>0.341558884250885</v>
       </c>
       <c r="J6">
-        <v>0.3462074475119721</v>
+        <v>0.3241530087241955</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7542701960598777</v>
+        <v>0.9014624441183088</v>
       </c>
       <c r="O6">
-        <v>0.9254648717756879</v>
+        <v>1.638771508950626</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.784584328848524</v>
+        <v>0.6158989253742391</v>
       </c>
       <c r="C7">
-        <v>0.4727678278062797</v>
+        <v>0.1464982566506592</v>
       </c>
       <c r="D7">
-        <v>0.3284263610764384</v>
+        <v>0.376034458303522</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5706005332189008</v>
+        <v>0.8936259860469491</v>
       </c>
       <c r="G7">
-        <v>0.2560850531967063</v>
+        <v>0.3433366178092214</v>
       </c>
       <c r="H7">
-        <v>0.2152763296697913</v>
+        <v>0.5081338194703093</v>
       </c>
       <c r="I7">
-        <v>0.1326682040629699</v>
+        <v>0.3400011827234053</v>
       </c>
       <c r="J7">
-        <v>0.360963063779522</v>
+        <v>0.3273868347517492</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7584268171992079</v>
+        <v>0.9021490002621562</v>
       </c>
       <c r="O7">
-        <v>0.9439551264865287</v>
+        <v>1.638147765452899</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.153304751141775</v>
+        <v>0.7316152491040384</v>
       </c>
       <c r="C8">
-        <v>0.5656854706683418</v>
+        <v>0.1762184678505605</v>
       </c>
       <c r="D8">
-        <v>0.3840542511811833</v>
+        <v>0.3885828984371216</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6376413931641167</v>
+        <v>0.9003527120963355</v>
       </c>
       <c r="G8">
-        <v>0.2888239354129922</v>
+        <v>0.3464964154157428</v>
       </c>
       <c r="H8">
-        <v>0.2234487926797613</v>
+        <v>0.5047064743472305</v>
       </c>
       <c r="I8">
-        <v>0.1284014487819789</v>
+        <v>0.3336717227598314</v>
       </c>
       <c r="J8">
-        <v>0.4271534203828651</v>
+        <v>0.3421058744144716</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7783781675925496</v>
+        <v>0.9059397160529699</v>
       </c>
       <c r="O8">
-        <v>1.030934434788207</v>
+        <v>1.638025374939986</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.875928934826902</v>
+        <v>0.9574540468298096</v>
       </c>
       <c r="C9">
-        <v>0.7475762004719684</v>
+        <v>0.2339861825062144</v>
       </c>
       <c r="D9">
-        <v>0.4959983999817155</v>
+        <v>0.4145378202216818</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7797921830613177</v>
+        <v>0.9182445104433725</v>
       </c>
       <c r="G9">
-        <v>0.359501780549337</v>
+        <v>0.355100768750205</v>
       </c>
       <c r="H9">
-        <v>0.2434961066058037</v>
+        <v>0.5001111792301316</v>
       </c>
       <c r="I9">
-        <v>0.1243065062790905</v>
+        <v>0.3232231539799102</v>
       </c>
       <c r="J9">
-        <v>0.5616638387324429</v>
+        <v>0.3725867757564743</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8237516454995415</v>
+        <v>0.9160891593216292</v>
       </c>
       <c r="O9">
-        <v>1.223575065316567</v>
+        <v>1.647264782442903</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.40772350965517</v>
+        <v>1.122649788853664</v>
       </c>
       <c r="C10">
-        <v>0.881311035018058</v>
+        <v>0.2760986920590369</v>
       </c>
       <c r="D10">
-        <v>0.580471051979174</v>
+        <v>0.434424174362789</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8921454885393558</v>
+        <v>0.9342652678992494</v>
       </c>
       <c r="G10">
-        <v>0.4162747331268122</v>
+        <v>0.3629033982207233</v>
       </c>
       <c r="H10">
-        <v>0.2610777976840097</v>
+        <v>0.4980317157731946</v>
       </c>
       <c r="I10">
-        <v>0.1243168386779345</v>
+        <v>0.3167499766008284</v>
       </c>
       <c r="J10">
-        <v>0.6642236735648197</v>
+        <v>0.3959737532364045</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8613729108313208</v>
+        <v>0.9251867491008312</v>
       </c>
       <c r="O10">
-        <v>1.381309497038558</v>
+        <v>1.659861605567869</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.650122635646539</v>
+        <v>1.197629814141976</v>
       </c>
       <c r="C11">
-        <v>0.9422448809474133</v>
+        <v>0.2951820003329431</v>
       </c>
       <c r="D11">
-        <v>0.6194996007801876</v>
+        <v>0.4436477113915771</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9453098709725367</v>
+        <v>0.9421802660499736</v>
       </c>
       <c r="G11">
-        <v>0.4433673284135864</v>
+        <v>0.3667774674413238</v>
       </c>
       <c r="H11">
-        <v>0.2697909550295918</v>
+        <v>0.4973674945483992</v>
       </c>
       <c r="I11">
-        <v>0.1250746982993505</v>
+        <v>0.3140678339097143</v>
       </c>
       <c r="J11">
-        <v>0.7118986984195317</v>
+        <v>0.4068302889113653</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8795314373038252</v>
+        <v>0.9296788307067914</v>
       </c>
       <c r="O11">
-        <v>1.457235978731006</v>
+        <v>1.666860123639395</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.742006635728046</v>
+        <v>1.225997085815095</v>
       </c>
       <c r="C12">
-        <v>0.9653392910317962</v>
+        <v>0.3023973676526737</v>
       </c>
       <c r="D12">
-        <v>0.6343754762772278</v>
+        <v>0.4471657804404572</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9657669362174772</v>
+        <v>0.9452677670542045</v>
       </c>
       <c r="G12">
-        <v>0.4538276574742923</v>
+        <v>0.3682913577511329</v>
       </c>
       <c r="H12">
-        <v>0.2732017536512643</v>
+        <v>0.4971564948566822</v>
       </c>
       <c r="I12">
-        <v>0.1254787021499233</v>
+        <v>0.3130900450821379</v>
       </c>
       <c r="J12">
-        <v>0.730117155917398</v>
+        <v>0.4109727493689377</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.886567805868566</v>
+        <v>0.9314304327146488</v>
       </c>
       <c r="O12">
-        <v>1.486645408251007</v>
+        <v>1.669693096414079</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.722213257833403</v>
+        <v>1.219888873360617</v>
       </c>
       <c r="C13">
-        <v>0.960364500053231</v>
+        <v>0.3008439084684653</v>
       </c>
       <c r="D13">
-        <v>0.631167224341965</v>
+        <v>0.446406977888131</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9613462011321445</v>
+        <v>0.9445988025782839</v>
       </c>
       <c r="G13">
-        <v>0.4515655867200365</v>
+        <v>0.3679632271454381</v>
       </c>
       <c r="H13">
-        <v>0.2724620850602264</v>
+        <v>0.4972001347833555</v>
       </c>
       <c r="I13">
-        <v>0.1253863433759577</v>
+        <v>0.3132989426305954</v>
       </c>
       <c r="J13">
-        <v>0.7261858423793228</v>
+        <v>0.4100792027943072</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8850451109529445</v>
+        <v>0.9310509503113167</v>
       </c>
       <c r="O13">
-        <v>1.480281346540806</v>
+        <v>1.669074828839143</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.657679989446478</v>
+        <v>1.199964138927442</v>
       </c>
       <c r="C14">
-        <v>0.9441444324477857</v>
+        <v>0.2957758372863282</v>
       </c>
       <c r="D14">
-        <v>0.6207214511456414</v>
+        <v>0.4439366385792596</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9469861990258295</v>
+        <v>0.9424324670994082</v>
       </c>
       <c r="G14">
-        <v>0.4442237659174708</v>
+        <v>0.3669010758203228</v>
       </c>
       <c r="H14">
-        <v>0.2700692819051937</v>
+        <v>0.4973493231916848</v>
       </c>
       <c r="I14">
-        <v>0.1251055387598967</v>
+        <v>0.3139866307246315</v>
       </c>
       <c r="J14">
-        <v>0.7133941261373735</v>
+        <v>0.407170463674916</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8801070550951522</v>
+        <v>0.9298219246439885</v>
       </c>
       <c r="O14">
-        <v>1.459641983429833</v>
+        <v>1.667089528285089</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.618164296125144</v>
+        <v>1.187756218836228</v>
       </c>
       <c r="C15">
-        <v>0.9342119791662356</v>
+        <v>0.2926700429207187</v>
       </c>
       <c r="D15">
-        <v>0.6143360081340461</v>
+        <v>0.4424267766445951</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9382335003192424</v>
+        <v>0.9411172816255515</v>
       </c>
       <c r="G15">
-        <v>0.4397534405216419</v>
+        <v>0.3662565860635993</v>
       </c>
       <c r="H15">
-        <v>0.2686183790257246</v>
+        <v>0.4974459835273137</v>
       </c>
       <c r="I15">
-        <v>0.1249490454747786</v>
+        <v>0.3144127964687371</v>
       </c>
       <c r="J15">
-        <v>0.7055808796201006</v>
+        <v>0.4053928572302681</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8771035129481959</v>
+        <v>0.9290756852624042</v>
       </c>
       <c r="O15">
-        <v>1.44708721428691</v>
+        <v>1.66589729107406</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.391893820842199</v>
+        <v>1.117746123889845</v>
       </c>
       <c r="C16">
-        <v>0.8773313303485395</v>
+        <v>0.2748500283654209</v>
       </c>
       <c r="D16">
-        <v>0.5779333961342275</v>
+        <v>0.4338249456035044</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8887148806083616</v>
+        <v>0.9337606302698447</v>
       </c>
       <c r="G16">
-        <v>0.4145312321734593</v>
+        <v>0.3626567666205318</v>
       </c>
       <c r="H16">
-        <v>0.260523474473942</v>
+        <v>0.4980807945776888</v>
       </c>
       <c r="I16">
-        <v>0.1242831985465074</v>
+        <v>0.3169305548008978</v>
       </c>
       <c r="J16">
-        <v>0.6611300556436959</v>
+        <v>0.3952686354597859</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8602080600843607</v>
+        <v>0.924900270203409</v>
       </c>
       <c r="O16">
-        <v>1.376436326511339</v>
+        <v>1.659429791065293</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.253223881471911</v>
+        <v>1.074752778252105</v>
       </c>
       <c r="C17">
-        <v>0.8424659633635372</v>
+        <v>0.2638987877803061</v>
       </c>
       <c r="D17">
-        <v>0.5557625985451295</v>
+        <v>0.4285932584611487</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8588832883221045</v>
+        <v>0.9294082367249388</v>
       </c>
       <c r="G17">
-        <v>0.399395568545188</v>
+        <v>0.3605316677058141</v>
       </c>
       <c r="H17">
-        <v>0.2557465309097466</v>
+        <v>0.4985423995123739</v>
       </c>
       <c r="I17">
-        <v>0.1240736516755412</v>
+        <v>0.3185424513239532</v>
       </c>
       <c r="J17">
-        <v>0.6341347484109292</v>
+        <v>0.3891135240759382</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8501176209421857</v>
+        <v>0.9224291304216337</v>
       </c>
       <c r="O17">
-        <v>1.33420277342654</v>
+        <v>1.655787299647955</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.173508568375496</v>
+        <v>1.050008406445158</v>
       </c>
       <c r="C18">
-        <v>0.822421077603309</v>
+        <v>0.2575929959962195</v>
       </c>
       <c r="D18">
-        <v>0.5430665111634028</v>
+        <v>0.4256008125073834</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8419164239364534</v>
+        <v>0.9269638730582415</v>
       </c>
       <c r="G18">
-        <v>0.3908079213900919</v>
+        <v>0.3593399102312418</v>
       </c>
       <c r="H18">
-        <v>0.2530657323866876</v>
+        <v>0.4988344201166655</v>
       </c>
       <c r="I18">
-        <v>0.1240234628153516</v>
+        <v>0.3194942752939731</v>
       </c>
       <c r="J18">
-        <v>0.6187025992849868</v>
+        <v>0.3855937547556181</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8444115404461883</v>
+        <v>0.9210410903004345</v>
       </c>
       <c r="O18">
-        <v>1.310300182154236</v>
+        <v>1.653811574880507</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.146525207787761</v>
+        <v>1.041627740346996</v>
       </c>
       <c r="C19">
-        <v>0.8156355495459593</v>
+        <v>0.255456786896076</v>
       </c>
       <c r="D19">
-        <v>0.5387771507650712</v>
+        <v>0.4245904916422205</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.83620375733814</v>
+        <v>0.926146387140335</v>
       </c>
       <c r="G19">
-        <v>0.3879200021143845</v>
+        <v>0.3589416417852362</v>
       </c>
       <c r="H19">
-        <v>0.2521692795671129</v>
+        <v>0.4989378473116375</v>
       </c>
       <c r="I19">
-        <v>0.1240182936667402</v>
+        <v>0.3198207855260513</v>
       </c>
       <c r="J19">
-        <v>0.6134932925095455</v>
+        <v>0.3844055394312846</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8424960426302732</v>
+        <v>0.9205768510107788</v>
       </c>
       <c r="O19">
-        <v>1.302272296468857</v>
+        <v>1.653163112145279</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.26798082047128</v>
+        <v>1.079331135220343</v>
       </c>
       <c r="C20">
-        <v>0.8461764929944025</v>
+        <v>0.2650652862548384</v>
       </c>
       <c r="D20">
-        <v>0.5581168543316153</v>
+        <v>0.4291484550818723</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8620388880766114</v>
+        <v>0.9298654476478703</v>
       </c>
       <c r="G20">
-        <v>0.4009944421453611</v>
+        <v>0.3607547256579409</v>
       </c>
       <c r="H20">
-        <v>0.2562480744034872</v>
+        <v>0.4984905163059494</v>
       </c>
       <c r="I20">
-        <v>0.1240886173391118</v>
+        <v>0.3183683045176906</v>
       </c>
       <c r="J20">
-        <v>0.6369985015919752</v>
+        <v>0.3897666255918608</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8511815866429941</v>
+        <v>0.9226887437754669</v>
       </c>
       <c r="O20">
-        <v>1.33865793826908</v>
+        <v>1.65616269474134</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.676632263550687</v>
+        <v>1.205817237591702</v>
       </c>
       <c r="C21">
-        <v>0.9489080629195712</v>
+        <v>0.297264756535327</v>
       </c>
       <c r="D21">
-        <v>0.6237869215731564</v>
+        <v>0.4446615512990206</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9511950177630268</v>
+        <v>0.943066321918792</v>
       </c>
       <c r="G21">
-        <v>0.4463746260749559</v>
+        <v>0.3672117820562733</v>
       </c>
       <c r="H21">
-        <v>0.270769014643065</v>
+        <v>0.497304402959557</v>
       </c>
       <c r="I21">
-        <v>0.1251847697414163</v>
+        <v>0.3137836109824974</v>
       </c>
       <c r="J21">
-        <v>0.7171467336577848</v>
+        <v>0.4080239805014969</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8815530534848648</v>
+        <v>0.9301815497019845</v>
       </c>
       <c r="O21">
-        <v>1.465685934177344</v>
+        <v>1.667667695047413</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.944262218701283</v>
+        <v>1.288330610484934</v>
       </c>
       <c r="C22">
-        <v>1.016169399161953</v>
+        <v>0.318244257774154</v>
       </c>
       <c r="D22">
-        <v>0.6672744806163848</v>
+        <v>0.4549477433561719</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.011372482552119</v>
+        <v>0.9522200189137209</v>
       </c>
       <c r="G22">
-        <v>0.4772142123565146</v>
+        <v>0.3717050880664914</v>
       </c>
       <c r="H22">
-        <v>0.2809124858300152</v>
+        <v>0.4967654346056634</v>
       </c>
       <c r="I22">
-        <v>0.1265877057208691</v>
+        <v>0.3110081036626298</v>
       </c>
       <c r="J22">
-        <v>0.770499264150402</v>
+        <v>0.4201388195697007</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9023410031513066</v>
+        <v>0.9353730338584967</v>
       </c>
       <c r="O22">
-        <v>1.552569511978788</v>
+        <v>1.676252489122163</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.801364313620866</v>
+        <v>1.244306237094634</v>
       </c>
       <c r="C23">
-        <v>0.9802575826915643</v>
+        <v>0.3070531705900521</v>
       </c>
       <c r="D23">
-        <v>0.6440088029560513</v>
+        <v>0.4494443656595877</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9790696962596854</v>
+        <v>0.9472863452109408</v>
       </c>
       <c r="G23">
-        <v>0.4606399029736252</v>
+        <v>0.369281863182465</v>
       </c>
       <c r="H23">
-        <v>0.2754359992855626</v>
+        <v>0.4970314732465368</v>
       </c>
       <c r="I23">
-        <v>0.1257730839840683</v>
+        <v>0.3124691938176696</v>
       </c>
       <c r="J23">
-        <v>0.7419287541526529</v>
+        <v>0.4136561863149666</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8911567592414258</v>
+        <v>0.9325753887898003</v>
       </c>
       <c r="O23">
-        <v>1.505824460447599</v>
+        <v>1.671572979552906</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.261309185530934</v>
+        <v>1.077261343761734</v>
       </c>
       <c r="C24">
-        <v>0.8444989640058509</v>
+        <v>0.2645379427175953</v>
       </c>
       <c r="D24">
-        <v>0.5570523396859244</v>
+        <v>0.4288974029560961</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8606116713982033</v>
+        <v>0.9296585622870879</v>
       </c>
       <c r="G24">
-        <v>0.4002712375688731</v>
+        <v>0.3606537877545719</v>
       </c>
       <c r="H24">
-        <v>0.2560211231127028</v>
+        <v>0.4985138897284429</v>
       </c>
       <c r="I24">
-        <v>0.1240816331010031</v>
+        <v>0.3184469580410259</v>
       </c>
       <c r="J24">
-        <v>0.6357035266274949</v>
+        <v>0.3894712995726195</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8507002724425945</v>
+        <v>0.9225712708494029</v>
       </c>
       <c r="O24">
-        <v>1.336642585049844</v>
+        <v>1.655992609866644</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.680373300049496</v>
+        <v>0.8964815288496197</v>
       </c>
       <c r="C25">
-        <v>0.6983752458942831</v>
+        <v>0.2184151575930287</v>
       </c>
       <c r="D25">
-        <v>0.4653604465372894</v>
+        <v>0.4073725012003422</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.740053446385545</v>
+        <v>0.9129000259004556</v>
       </c>
       <c r="G25">
-        <v>0.3395988541919195</v>
+        <v>0.352513918748258</v>
       </c>
       <c r="H25">
-        <v>0.2376023472275364</v>
+        <v>0.5011266725200727</v>
       </c>
       <c r="I25">
-        <v>0.1249156051380673</v>
+        <v>0.3258389023262858</v>
       </c>
       <c r="J25">
-        <v>0.5246852828075532</v>
+        <v>0.3641670614564134</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8107606416041904</v>
+        <v>0.9130542726024942</v>
       </c>
       <c r="O25">
-        <v>1.168824429996334</v>
+        <v>1.643747359095158</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_247/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_247/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7628980452026326</v>
+        <v>2.253140474148381</v>
       </c>
       <c r="C2">
-        <v>0.1842370164797558</v>
+        <v>0.5908296979984584</v>
       </c>
       <c r="D2">
-        <v>0.3920742421111072</v>
+        <v>0.399303149118964</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9024930629654122</v>
+        <v>0.656480142192656</v>
       </c>
       <c r="G2">
-        <v>0.347515035241031</v>
+        <v>0.298101466058057</v>
       </c>
       <c r="H2">
-        <v>0.5039216626703507</v>
+        <v>0.2259212096029728</v>
       </c>
       <c r="I2">
-        <v>0.3320893952141368</v>
+        <v>0.1275199362179897</v>
       </c>
       <c r="J2">
-        <v>0.3462031607624141</v>
+        <v>0.4453765203119957</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9071511714870297</v>
+        <v>0.7841902800736591</v>
       </c>
       <c r="O2">
-        <v>1.638632617096761</v>
+        <v>1.055899362760186</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6720906560256878</v>
+        <v>1.963531283811335</v>
       </c>
       <c r="C3">
-        <v>0.1609428693234065</v>
+        <v>0.5178737620995264</v>
       </c>
       <c r="D3">
-        <v>0.3820508835601544</v>
+        <v>0.3552820814851572</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8966419063335067</v>
+        <v>0.602617517961427</v>
       </c>
       <c r="G3">
-        <v>0.3447431359752429</v>
+        <v>0.2716625221800157</v>
       </c>
       <c r="H3">
-        <v>0.5063590435960492</v>
+        <v>0.2190452509900283</v>
       </c>
       <c r="I3">
-        <v>0.3368272960522667</v>
+        <v>0.1303898239852685</v>
       </c>
       <c r="J3">
-        <v>0.3344425702579059</v>
+        <v>0.3928603959430319</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9038441186900457</v>
+        <v>0.7677955210929781</v>
       </c>
       <c r="O3">
-        <v>1.637589832813845</v>
+        <v>0.9850986161773676</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.616206344787912</v>
+        <v>1.785562873505029</v>
       </c>
       <c r="C4">
-        <v>0.1465773524022609</v>
+        <v>0.4730145465379678</v>
       </c>
       <c r="D4">
-        <v>0.3760669391792391</v>
+        <v>0.3285724478862448</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8936410741296541</v>
+        <v>0.5707727944878727</v>
       </c>
       <c r="G4">
-        <v>0.3433435931115554</v>
+        <v>0.2561685535548506</v>
       </c>
       <c r="H4">
-        <v>0.5081234867077313</v>
+        <v>0.2152958608648703</v>
       </c>
       <c r="I4">
-        <v>0.3399832532416962</v>
+        <v>0.1326546133028987</v>
       </c>
       <c r="J4">
-        <v>0.3274249198447734</v>
+        <v>0.3611362742581861</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9021574511902486</v>
+        <v>0.7584763144560611</v>
       </c>
       <c r="O4">
-        <v>1.638141904688723</v>
+        <v>0.9441743102242697</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5934024802451177</v>
+        <v>1.712987948495709</v>
       </c>
       <c r="C5">
-        <v>0.1407078966952326</v>
+        <v>0.4547143206680744</v>
       </c>
       <c r="D5">
-        <v>0.3736714391809102</v>
+        <v>0.3177617381788167</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8925669588300238</v>
+        <v>0.5580845992663512</v>
       </c>
       <c r="G5">
-        <v>0.342849144695883</v>
+        <v>0.2500278751500957</v>
       </c>
       <c r="H5">
-        <v>0.5089098762152915</v>
+        <v>0.213881051073237</v>
       </c>
       <c r="I5">
-        <v>0.3413313020194018</v>
+        <v>0.1336979256501891</v>
       </c>
       <c r="J5">
-        <v>0.3246162922608562</v>
+        <v>0.3483274848662319</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9015569117318023</v>
+        <v>0.754859932219567</v>
       </c>
       <c r="O5">
-        <v>1.638666348578226</v>
+        <v>0.928098943566809</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5896141201605758</v>
+        <v>1.700933435964828</v>
       </c>
       <c r="C6">
-        <v>0.1397323603959251</v>
+        <v>0.451674289057479</v>
       </c>
       <c r="D6">
-        <v>0.3732762700370813</v>
+        <v>0.3159708904346985</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8923975849323114</v>
+        <v>0.555994615646874</v>
       </c>
       <c r="G6">
-        <v>0.3427716197513746</v>
+        <v>0.2490183218921729</v>
       </c>
       <c r="H6">
-        <v>0.5090445243664803</v>
+        <v>0.2136527918949369</v>
       </c>
       <c r="I6">
-        <v>0.341558884250885</v>
+        <v>0.1338782675319603</v>
       </c>
       <c r="J6">
-        <v>0.3241530087241955</v>
+        <v>0.3462074475119721</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9014624441183088</v>
+        <v>0.7542701960598777</v>
       </c>
       <c r="O6">
-        <v>1.638771508950626</v>
+        <v>0.9254648717756595</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6158989253742391</v>
+        <v>1.784584328848524</v>
       </c>
       <c r="C7">
-        <v>0.1464982566506592</v>
+        <v>0.4727678278062513</v>
       </c>
       <c r="D7">
-        <v>0.376034458303522</v>
+        <v>0.3284263610766658</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8936259860469491</v>
+        <v>0.570600533218915</v>
       </c>
       <c r="G7">
-        <v>0.3433366178092214</v>
+        <v>0.2560850531965926</v>
       </c>
       <c r="H7">
-        <v>0.5081338194703093</v>
+        <v>0.2152763296696776</v>
       </c>
       <c r="I7">
-        <v>0.3400011827234053</v>
+        <v>0.1326682040629699</v>
       </c>
       <c r="J7">
-        <v>0.3273868347517492</v>
+        <v>0.360963063779522</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9021490002621562</v>
+        <v>0.7584268171991937</v>
       </c>
       <c r="O7">
-        <v>1.638147765452899</v>
+        <v>0.9439551264865571</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7316152491040384</v>
+        <v>2.153304751141945</v>
       </c>
       <c r="C8">
-        <v>0.1762184678505605</v>
+        <v>0.5656854706683418</v>
       </c>
       <c r="D8">
-        <v>0.3885828984371216</v>
+        <v>0.3840542511809844</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9003527120963355</v>
+        <v>0.6376413931641167</v>
       </c>
       <c r="G8">
-        <v>0.3464964154157428</v>
+        <v>0.2888239354130278</v>
       </c>
       <c r="H8">
-        <v>0.5047064743472305</v>
+        <v>0.2234487926797613</v>
       </c>
       <c r="I8">
-        <v>0.3336717227598314</v>
+        <v>0.1284014487820002</v>
       </c>
       <c r="J8">
-        <v>0.3421058744144716</v>
+        <v>0.4271534203829361</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9059397160529699</v>
+        <v>0.7783781675925354</v>
       </c>
       <c r="O8">
-        <v>1.638025374939986</v>
+        <v>1.030934434788207</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9574540468298096</v>
+        <v>2.875928934826959</v>
       </c>
       <c r="C9">
-        <v>0.2339861825062144</v>
+        <v>0.7475762004719684</v>
       </c>
       <c r="D9">
-        <v>0.4145378202216818</v>
+        <v>0.4959983999817723</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9182445104433725</v>
+        <v>0.7797921830612893</v>
       </c>
       <c r="G9">
-        <v>0.355100768750205</v>
+        <v>0.3595017805493796</v>
       </c>
       <c r="H9">
-        <v>0.5001111792301316</v>
+        <v>0.2434961066058037</v>
       </c>
       <c r="I9">
-        <v>0.3232231539799102</v>
+        <v>0.1243065062790869</v>
       </c>
       <c r="J9">
-        <v>0.3725867757564743</v>
+        <v>0.5616638387324713</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9160891593216292</v>
+        <v>0.8237516454995415</v>
       </c>
       <c r="O9">
-        <v>1.647264782442903</v>
+        <v>1.223575065316567</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.122649788853664</v>
+        <v>3.407723509655284</v>
       </c>
       <c r="C10">
-        <v>0.2760986920590369</v>
+        <v>0.8813110350180295</v>
       </c>
       <c r="D10">
-        <v>0.434424174362789</v>
+        <v>0.5804710519791172</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9342652678992494</v>
+        <v>0.89214548853937</v>
       </c>
       <c r="G10">
-        <v>0.3629033982207233</v>
+        <v>0.4162747331267269</v>
       </c>
       <c r="H10">
-        <v>0.4980317157731946</v>
+        <v>0.2610777976840239</v>
       </c>
       <c r="I10">
-        <v>0.3167499766008284</v>
+        <v>0.1243168386779345</v>
       </c>
       <c r="J10">
-        <v>0.3959737532364045</v>
+        <v>0.6642236735647771</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9251867491008312</v>
+        <v>0.8613729108313066</v>
       </c>
       <c r="O10">
-        <v>1.659861605567869</v>
+        <v>1.381309497038586</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.197629814141976</v>
+        <v>3.650122635646653</v>
       </c>
       <c r="C11">
-        <v>0.2951820003329431</v>
+        <v>0.942244880947726</v>
       </c>
       <c r="D11">
-        <v>0.4436477113915771</v>
+        <v>0.6194996007801876</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9421802660499736</v>
+        <v>0.9453098709725509</v>
       </c>
       <c r="G11">
-        <v>0.3667774674413238</v>
+        <v>0.443367328413558</v>
       </c>
       <c r="H11">
-        <v>0.4973674945483992</v>
+        <v>0.2697909550295918</v>
       </c>
       <c r="I11">
-        <v>0.3140678339097143</v>
+        <v>0.1250746982993505</v>
       </c>
       <c r="J11">
-        <v>0.4068302889113653</v>
+        <v>0.7118986984194606</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9296788307067914</v>
+        <v>0.8795314373036973</v>
       </c>
       <c r="O11">
-        <v>1.666860123639395</v>
+        <v>1.457235978731035</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.225997085815095</v>
+        <v>3.742006635728046</v>
       </c>
       <c r="C12">
-        <v>0.3023973676526737</v>
+        <v>0.9653392910315972</v>
       </c>
       <c r="D12">
-        <v>0.4471657804404572</v>
+        <v>0.6343754762773699</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9452677670542045</v>
+        <v>0.9657669362174772</v>
       </c>
       <c r="G12">
-        <v>0.3682913577511329</v>
+        <v>0.4538276574743065</v>
       </c>
       <c r="H12">
-        <v>0.4971564948566822</v>
+        <v>0.2732017536512643</v>
       </c>
       <c r="I12">
-        <v>0.3130900450821379</v>
+        <v>0.1254787021499233</v>
       </c>
       <c r="J12">
-        <v>0.4109727493689377</v>
+        <v>0.7301171559172985</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9314304327146488</v>
+        <v>0.8865678058685091</v>
       </c>
       <c r="O12">
-        <v>1.669693096414079</v>
+        <v>1.486645408251121</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.219888873360617</v>
+        <v>3.722213257833459</v>
       </c>
       <c r="C13">
-        <v>0.3008439084684653</v>
+        <v>0.9603645000537711</v>
       </c>
       <c r="D13">
-        <v>0.446406977888131</v>
+        <v>0.631167224341965</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9445988025782839</v>
+        <v>0.9613462011321445</v>
       </c>
       <c r="G13">
-        <v>0.3679632271454381</v>
+        <v>0.4515655867200508</v>
       </c>
       <c r="H13">
-        <v>0.4972001347833555</v>
+        <v>0.2724620850602264</v>
       </c>
       <c r="I13">
-        <v>0.3132989426305954</v>
+        <v>0.1253863433759399</v>
       </c>
       <c r="J13">
-        <v>0.4100792027943072</v>
+        <v>0.7261858423792376</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9310509503113167</v>
+        <v>0.8850451109529445</v>
       </c>
       <c r="O13">
-        <v>1.669074828839143</v>
+        <v>1.48028134654092</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.199964138927442</v>
+        <v>3.657679989446422</v>
       </c>
       <c r="C14">
-        <v>0.2957758372863282</v>
+        <v>0.9441444324477573</v>
       </c>
       <c r="D14">
-        <v>0.4439366385792596</v>
+        <v>0.6207214511456414</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9424324670994082</v>
+        <v>0.9469861990258153</v>
       </c>
       <c r="G14">
-        <v>0.3669010758203228</v>
+        <v>0.4442237659174708</v>
       </c>
       <c r="H14">
-        <v>0.4973493231916848</v>
+        <v>0.2700692819051937</v>
       </c>
       <c r="I14">
-        <v>0.3139866307246315</v>
+        <v>0.1251055387598967</v>
       </c>
       <c r="J14">
-        <v>0.407170463674916</v>
+        <v>0.7133941261374019</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9298219246439885</v>
+        <v>0.880107055095138</v>
       </c>
       <c r="O14">
-        <v>1.667089528285089</v>
+        <v>1.459641983429833</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.187756218836228</v>
+        <v>3.61816429612503</v>
       </c>
       <c r="C15">
-        <v>0.2926700429207187</v>
+        <v>0.9342119791660366</v>
       </c>
       <c r="D15">
-        <v>0.4424267766445951</v>
+        <v>0.6143360081341029</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9411172816255515</v>
+        <v>0.9382335003192424</v>
       </c>
       <c r="G15">
-        <v>0.3662565860635993</v>
+        <v>0.4397534405216845</v>
       </c>
       <c r="H15">
-        <v>0.4974459835273137</v>
+        <v>0.2686183790257246</v>
       </c>
       <c r="I15">
-        <v>0.3144127964687371</v>
+        <v>0.1249490454747786</v>
       </c>
       <c r="J15">
-        <v>0.4053928572302681</v>
+        <v>0.7055808796200438</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9290756852624042</v>
+        <v>0.8771035129481248</v>
       </c>
       <c r="O15">
-        <v>1.66589729107406</v>
+        <v>1.44708721428691</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.117746123889845</v>
+        <v>3.391893820842085</v>
       </c>
       <c r="C16">
-        <v>0.2748500283654209</v>
+        <v>0.8773313303482837</v>
       </c>
       <c r="D16">
-        <v>0.4338249456035044</v>
+        <v>0.577933396134199</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9337606302698447</v>
+        <v>0.8887148806083758</v>
       </c>
       <c r="G16">
-        <v>0.3626567666205318</v>
+        <v>0.4145312321734451</v>
       </c>
       <c r="H16">
-        <v>0.4980807945776888</v>
+        <v>0.2605234744740414</v>
       </c>
       <c r="I16">
-        <v>0.3169305548008978</v>
+        <v>0.1242831985465038</v>
       </c>
       <c r="J16">
-        <v>0.3952686354597859</v>
+        <v>0.6611300556436817</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.924900270203409</v>
+        <v>0.8602080600843323</v>
       </c>
       <c r="O16">
-        <v>1.659429791065293</v>
+        <v>1.376436326511367</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.074752778252105</v>
+        <v>3.253223881471911</v>
       </c>
       <c r="C17">
-        <v>0.2638987877803061</v>
+        <v>0.8424659633635372</v>
       </c>
       <c r="D17">
-        <v>0.4285932584611487</v>
+        <v>0.5557625985450159</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9294082367249388</v>
+        <v>0.8588832883221187</v>
       </c>
       <c r="G17">
-        <v>0.3605316677058141</v>
+        <v>0.3993955685451169</v>
       </c>
       <c r="H17">
-        <v>0.4985423995123739</v>
+        <v>0.2557465309097466</v>
       </c>
       <c r="I17">
-        <v>0.3185424513239532</v>
+        <v>0.124073651675527</v>
       </c>
       <c r="J17">
-        <v>0.3891135240759382</v>
+        <v>0.634134748410915</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9224291304216337</v>
+        <v>0.8501176209421857</v>
       </c>
       <c r="O17">
-        <v>1.655787299647955</v>
+        <v>1.334202773426597</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.050008406445158</v>
+        <v>3.173508568375553</v>
       </c>
       <c r="C18">
-        <v>0.2575929959962195</v>
+        <v>0.8224210776033658</v>
       </c>
       <c r="D18">
-        <v>0.4256008125073834</v>
+        <v>0.5430665111634028</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9269638730582415</v>
+        <v>0.8419164239364676</v>
       </c>
       <c r="G18">
-        <v>0.3593399102312418</v>
+        <v>0.3908079213901487</v>
       </c>
       <c r="H18">
-        <v>0.4988344201166655</v>
+        <v>0.2530657323866876</v>
       </c>
       <c r="I18">
-        <v>0.3194942752939731</v>
+        <v>0.1240234628153623</v>
       </c>
       <c r="J18">
-        <v>0.3855937547556181</v>
+        <v>0.6187025992848163</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9210410903004345</v>
+        <v>0.8444115404462309</v>
       </c>
       <c r="O18">
-        <v>1.653811574880507</v>
+        <v>1.310300182154236</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.041627740346996</v>
+        <v>3.146525207787704</v>
       </c>
       <c r="C19">
-        <v>0.255456786896076</v>
+        <v>0.8156355495457888</v>
       </c>
       <c r="D19">
-        <v>0.4245904916422205</v>
+        <v>0.538777150765128</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.926146387140335</v>
+        <v>0.8362037573381258</v>
       </c>
       <c r="G19">
-        <v>0.3589416417852362</v>
+        <v>0.3879200021143703</v>
       </c>
       <c r="H19">
-        <v>0.4989378473116375</v>
+        <v>0.2521692795672266</v>
       </c>
       <c r="I19">
-        <v>0.3198207855260513</v>
+        <v>0.1240182936667402</v>
       </c>
       <c r="J19">
-        <v>0.3844055394312846</v>
+        <v>0.6134932925095171</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9205768510107788</v>
+        <v>0.8424960426302732</v>
       </c>
       <c r="O19">
-        <v>1.653163112145279</v>
+        <v>1.302272296468914</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.079331135220343</v>
+        <v>3.26798082047128</v>
       </c>
       <c r="C20">
-        <v>0.2650652862548384</v>
+        <v>0.8461764929941751</v>
       </c>
       <c r="D20">
-        <v>0.4291484550818723</v>
+        <v>0.5581168543316153</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9298654476478703</v>
+        <v>0.8620388880765972</v>
       </c>
       <c r="G20">
-        <v>0.3607547256579409</v>
+        <v>0.4009944421453611</v>
       </c>
       <c r="H20">
-        <v>0.4984905163059494</v>
+        <v>0.2562480744034872</v>
       </c>
       <c r="I20">
-        <v>0.3183683045176906</v>
+        <v>0.124088617339126</v>
       </c>
       <c r="J20">
-        <v>0.3897666255918608</v>
+        <v>0.6369985015920179</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9226887437754669</v>
+        <v>0.8511815866429799</v>
       </c>
       <c r="O20">
-        <v>1.65616269474134</v>
+        <v>1.338657938269108</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.205817237591702</v>
+        <v>3.6766322635508</v>
       </c>
       <c r="C21">
-        <v>0.297264756535327</v>
+        <v>0.9489080629195996</v>
       </c>
       <c r="D21">
-        <v>0.4446615512990206</v>
+        <v>0.623786921573128</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.943066321918792</v>
+        <v>0.9511950177630411</v>
       </c>
       <c r="G21">
-        <v>0.3672117820562733</v>
+        <v>0.4463746260749133</v>
       </c>
       <c r="H21">
-        <v>0.497304402959557</v>
+        <v>0.270769014643065</v>
       </c>
       <c r="I21">
-        <v>0.3137836109824974</v>
+        <v>0.1251847697414163</v>
       </c>
       <c r="J21">
-        <v>0.4080239805014969</v>
+        <v>0.7171467336578132</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9301815497019845</v>
+        <v>0.8815530534848648</v>
       </c>
       <c r="O21">
-        <v>1.667667695047413</v>
+        <v>1.465685934177287</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.288330610484934</v>
+        <v>3.944262218701397</v>
       </c>
       <c r="C22">
-        <v>0.318244257774154</v>
+        <v>1.016169399162408</v>
       </c>
       <c r="D22">
-        <v>0.4549477433561719</v>
+        <v>0.6672744806164133</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9522200189137209</v>
+        <v>1.011372482552119</v>
       </c>
       <c r="G22">
-        <v>0.3717050880664914</v>
+        <v>0.477214212356472</v>
       </c>
       <c r="H22">
-        <v>0.4967654346056634</v>
+        <v>0.2809124858300294</v>
       </c>
       <c r="I22">
-        <v>0.3110081036626298</v>
+        <v>0.1265877057208691</v>
       </c>
       <c r="J22">
-        <v>0.4201388195697007</v>
+        <v>0.7704992641504589</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9353730338584967</v>
+        <v>0.9023410031512498</v>
       </c>
       <c r="O22">
-        <v>1.676252489122163</v>
+        <v>1.552569511978731</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.244306237094634</v>
+        <v>3.801364313620923</v>
       </c>
       <c r="C23">
-        <v>0.3070531705900521</v>
+        <v>0.9802575826913653</v>
       </c>
       <c r="D23">
-        <v>0.4494443656595877</v>
+        <v>0.6440088029559092</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9472863452109408</v>
+        <v>0.9790696962596996</v>
       </c>
       <c r="G23">
-        <v>0.369281863182465</v>
+        <v>0.4606399029737105</v>
       </c>
       <c r="H23">
-        <v>0.4970314732465368</v>
+        <v>0.2754359992855768</v>
       </c>
       <c r="I23">
-        <v>0.3124691938176696</v>
+        <v>0.1257730839840647</v>
       </c>
       <c r="J23">
-        <v>0.4136561863149666</v>
+        <v>0.7419287541527524</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9325753887898003</v>
+        <v>0.8911567592414116</v>
       </c>
       <c r="O23">
-        <v>1.671572979552906</v>
+        <v>1.505824460447599</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.077261343761734</v>
+        <v>3.261309185531047</v>
       </c>
       <c r="C24">
-        <v>0.2645379427175953</v>
+        <v>0.8444989640055951</v>
       </c>
       <c r="D24">
-        <v>0.4288974029560961</v>
+        <v>0.5570523396858107</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9296585622870879</v>
+        <v>0.8606116713982033</v>
       </c>
       <c r="G24">
-        <v>0.3606537877545719</v>
+        <v>0.4002712375689015</v>
       </c>
       <c r="H24">
-        <v>0.4985138897284429</v>
+        <v>0.2560211231127028</v>
       </c>
       <c r="I24">
-        <v>0.3184469580410259</v>
+        <v>0.1240816331010031</v>
       </c>
       <c r="J24">
-        <v>0.3894712995726195</v>
+        <v>0.6357035266275801</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9225712708494029</v>
+        <v>0.8507002724425377</v>
       </c>
       <c r="O24">
-        <v>1.655992609866644</v>
+        <v>1.336642585049844</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8964815288496197</v>
+        <v>2.680373300049325</v>
       </c>
       <c r="C25">
-        <v>0.2184151575930287</v>
+        <v>0.6983752458944821</v>
       </c>
       <c r="D25">
-        <v>0.4073725012003422</v>
+        <v>0.4653604465372609</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9129000259004556</v>
+        <v>0.740053446385545</v>
       </c>
       <c r="G25">
-        <v>0.352513918748258</v>
+        <v>0.3395988541919053</v>
       </c>
       <c r="H25">
-        <v>0.5011266725200727</v>
+        <v>0.2376023472275364</v>
       </c>
       <c r="I25">
-        <v>0.3258389023262858</v>
+        <v>0.1249156051380709</v>
       </c>
       <c r="J25">
-        <v>0.3641670614564134</v>
+        <v>0.5246852828075532</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9130542726024942</v>
+        <v>0.8107606416041335</v>
       </c>
       <c r="O25">
-        <v>1.643747359095158</v>
+        <v>1.168824429996278</v>
       </c>
     </row>
   </sheetData>
